--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.81092366666667</v>
+        <v>0.6687250000000001</v>
       </c>
       <c r="H2">
-        <v>32.432771</v>
+        <v>2.006175</v>
       </c>
       <c r="I2">
-        <v>0.886286770790134</v>
+        <v>0.3866332538806421</v>
       </c>
       <c r="J2">
-        <v>0.8862867707901342</v>
+        <v>0.3866332538806422</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.157372</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="N2">
-        <v>0.472116</v>
+        <v>0.2229</v>
       </c>
       <c r="O2">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="P2">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="Q2">
-        <v>1.701336679270667</v>
+        <v>0.04968626750000001</v>
       </c>
       <c r="R2">
-        <v>15.312030113436</v>
+        <v>0.4471764075</v>
       </c>
       <c r="S2">
-        <v>0.143911003472447</v>
+        <v>0.03278699557313535</v>
       </c>
       <c r="T2">
-        <v>0.143911003472447</v>
+        <v>0.03278699557313535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.81092366666667</v>
+        <v>0.6687250000000001</v>
       </c>
       <c r="H3">
-        <v>32.432771</v>
+        <v>2.006175</v>
       </c>
       <c r="I3">
-        <v>0.886286770790134</v>
+        <v>0.3866332538806421</v>
       </c>
       <c r="J3">
-        <v>0.8862867707901342</v>
+        <v>0.3866332538806422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.883723</v>
       </c>
       <c r="O3">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="P3">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="Q3">
-        <v>6.788261854048112</v>
+        <v>0.4198975543916667</v>
       </c>
       <c r="R3">
-        <v>61.094356686433</v>
+        <v>3.779077989525001</v>
       </c>
       <c r="S3">
-        <v>0.5741988562008664</v>
+        <v>0.2770821788336171</v>
       </c>
       <c r="T3">
-        <v>0.5741988562008665</v>
+        <v>0.2770821788336171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.81092366666667</v>
+        <v>0.6687250000000001</v>
       </c>
       <c r="H4">
-        <v>32.432771</v>
+        <v>2.006175</v>
       </c>
       <c r="I4">
-        <v>0.886286770790134</v>
+        <v>0.3866332538806421</v>
       </c>
       <c r="J4">
-        <v>0.8862867707901342</v>
+        <v>0.3866332538806422</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1839076666666667</v>
+        <v>0.1739583333333333</v>
       </c>
       <c r="N4">
-        <v>0.5517230000000001</v>
+        <v>0.521875</v>
       </c>
       <c r="O4">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="P4">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="Q4">
-        <v>1.988211746048111</v>
+        <v>0.1163302864583333</v>
       </c>
       <c r="R4">
-        <v>17.893905714433</v>
+        <v>1.046972578125</v>
       </c>
       <c r="S4">
-        <v>0.1681769111168206</v>
+        <v>0.07676407947388969</v>
       </c>
       <c r="T4">
-        <v>0.1681769111168206</v>
+        <v>0.0767640794738897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.81426</v>
       </c>
       <c r="I5">
-        <v>0.07690497390937834</v>
+        <v>0.5423686872113029</v>
       </c>
       <c r="J5">
-        <v>0.07690497390937835</v>
+        <v>0.542368687211303</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.157372</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="N5">
-        <v>0.472116</v>
+        <v>0.2229</v>
       </c>
       <c r="O5">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="P5">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="Q5">
-        <v>0.1476285749066666</v>
+        <v>0.06969983933333332</v>
       </c>
       <c r="R5">
-        <v>1.32865717416</v>
+        <v>0.627298554</v>
       </c>
       <c r="S5">
-        <v>0.01248746154413906</v>
+        <v>0.04599355996443574</v>
       </c>
       <c r="T5">
-        <v>0.01248746154413907</v>
+        <v>0.04599355996443575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.81426</v>
       </c>
       <c r="I6">
-        <v>0.07690497390937834</v>
+        <v>0.5423686872113029</v>
       </c>
       <c r="J6">
-        <v>0.07690497390937835</v>
+        <v>0.542368687211303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.883723</v>
       </c>
       <c r="O6">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="P6">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="Q6">
         <v>0.5890318099977777</v>
@@ -818,10 +818,10 @@
         <v>5.30128628998</v>
       </c>
       <c r="S6">
-        <v>0.04982444679339457</v>
+        <v>0.3886905641852256</v>
       </c>
       <c r="T6">
-        <v>0.04982444679339457</v>
+        <v>0.3886905641852257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>2.81426</v>
       </c>
       <c r="I7">
-        <v>0.07690497390937834</v>
+        <v>0.5423686872113029</v>
       </c>
       <c r="J7">
-        <v>0.07690497390937835</v>
+        <v>0.542368687211303</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1839076666666667</v>
+        <v>0.1739583333333333</v>
       </c>
       <c r="N7">
-        <v>0.5517230000000001</v>
+        <v>0.521875</v>
       </c>
       <c r="O7">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="P7">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="Q7">
-        <v>0.1725213299977778</v>
+        <v>0.1631879930555555</v>
       </c>
       <c r="R7">
-        <v>1.55269196998</v>
+        <v>1.4686919375</v>
       </c>
       <c r="S7">
-        <v>0.01459306557184471</v>
+        <v>0.1076845630616416</v>
       </c>
       <c r="T7">
-        <v>0.01459306557184471</v>
+        <v>0.1076845630616416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.448987</v>
+        <v>0.122799</v>
       </c>
       <c r="H8">
-        <v>1.346961</v>
+        <v>0.368397</v>
       </c>
       <c r="I8">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805483</v>
       </c>
       <c r="J8">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805484</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.157372</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="N8">
-        <v>0.472116</v>
+        <v>0.2229</v>
       </c>
       <c r="O8">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="P8">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="Q8">
-        <v>0.070657982164</v>
+        <v>0.009123965699999998</v>
       </c>
       <c r="R8">
-        <v>0.635921839476</v>
+        <v>0.08211569129999999</v>
       </c>
       <c r="S8">
-        <v>0.005976748306466033</v>
+        <v>0.006020726411283333</v>
       </c>
       <c r="T8">
-        <v>0.005976748306466034</v>
+        <v>0.006020726411283334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.448987</v>
+        <v>0.122799</v>
       </c>
       <c r="H9">
-        <v>1.346961</v>
+        <v>0.368397</v>
       </c>
       <c r="I9">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805483</v>
       </c>
       <c r="J9">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.883723</v>
       </c>
       <c r="O9">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="P9">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="Q9">
-        <v>0.2819223795336667</v>
+        <v>0.07710643355899999</v>
       </c>
       <c r="R9">
-        <v>2.537301415803</v>
+        <v>0.6939579020309999</v>
       </c>
       <c r="S9">
-        <v>0.02384697457849579</v>
+        <v>0.05088102654841577</v>
       </c>
       <c r="T9">
-        <v>0.02384697457849579</v>
+        <v>0.05088102654841579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.448987</v>
+        <v>0.122799</v>
       </c>
       <c r="H10">
-        <v>1.346961</v>
+        <v>0.368397</v>
       </c>
       <c r="I10">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805483</v>
       </c>
       <c r="J10">
-        <v>0.03680825530048758</v>
+        <v>0.07099805890805484</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1839076666666667</v>
+        <v>0.1739583333333333</v>
       </c>
       <c r="N10">
-        <v>0.5517230000000001</v>
+        <v>0.521875</v>
       </c>
       <c r="O10">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="P10">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="Q10">
-        <v>0.08257215153366668</v>
+        <v>0.021361909375</v>
       </c>
       <c r="R10">
-        <v>0.7431493638030001</v>
+        <v>0.192257184375</v>
       </c>
       <c r="S10">
-        <v>0.006984532415525761</v>
+        <v>0.01409630594835572</v>
       </c>
       <c r="T10">
-        <v>0.00698453241552576</v>
+        <v>0.01409630594835572</v>
       </c>
     </row>
   </sheetData>
